--- a/automationframework/automationserver/automationtestcase/app_function_case.xlsx
+++ b/automationframework/automationserver/automationtestcase/app_function_case.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\Project\AutomationFramework\automationframework\automationserver\automationtestcase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Software/Work/Eclipse/AutomationFramework/automationframework/automationserver/automationtestcase/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18765" yWindow="1800" windowWidth="24300" windowHeight="14940" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="7260" yWindow="6360" windowWidth="26940" windowHeight="11900" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="appfuncase" sheetId="5" r:id="rId1"/>
@@ -18,6 +18,9 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="85">
   <si>
     <t>用例编号</t>
     <rPh sb="0" eb="1">
@@ -467,12 +470,22 @@
     <t>Yes</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>apk包路径</t>
+    <rPh sb="3" eb="4">
+      <t>bao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>lu'j</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -884,13 +897,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
     <col min="3" max="3" width="79" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -916,7 +929,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -934,7 +947,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -954,7 +967,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -974,7 +987,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -990,7 +1003,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1010,7 +1023,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1028,7 +1041,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1048,7 +1061,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1064,7 +1077,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1084,7 +1097,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1104,7 +1117,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1115,7 +1128,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1135,7 +1148,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1155,7 +1168,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1180,17 +1193,17 @@
       <selection sqref="A1:H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="2" max="2" width="20.125" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" customWidth="1"/>
     <col min="3" max="3" width="49.5" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
     <col min="5" max="6" width="19.5" customWidth="1"/>
-    <col min="7" max="7" width="15.875" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1216,7 +1229,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1234,7 +1247,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1254,7 +1267,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1272,7 +1285,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1290,7 +1303,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1310,7 +1323,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1332,7 +1345,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1352,7 +1365,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1374,7 +1387,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1396,7 +1409,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1418,7 +1431,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1438,7 +1451,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1454,7 +1467,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1474,7 +1487,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1492,7 +1505,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1508,7 +1521,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1528,7 +1541,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1548,7 +1561,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1568,7 +1581,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1588,7 +1601,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1608,7 +1621,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1626,7 +1639,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1646,7 +1659,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1661,7 +1674,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1677,7 +1690,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1697,7 +1710,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1717,7 +1730,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1728,7 +1741,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1748,7 +1761,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1768,7 +1781,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1788,23 +1801,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.375" customWidth="1"/>
-    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="43.5" customWidth="1"/>
-    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="7" max="8" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1827,10 +1840,13 @@
         <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>76</v>
       </c>
@@ -1849,11 +1865,11 @@
       <c r="F2" s="1">
         <v>4726</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>80</v>
       </c>
@@ -1872,123 +1888,123 @@
       <c r="F3" s="1">
         <v>4726</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>

--- a/automationframework/automationserver/automationtestcase/app_function_case.xlsx
+++ b/automationframework/automationserver/automationtestcase/app_function_case.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Software/Work/Eclipse/AutomationFramework/automationframework/automationserver/automationtestcase/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\Project\AutomationFramework\automationframework\automationserver\automationtestcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7260" yWindow="6360" windowWidth="26940" windowHeight="11900" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="7260" yWindow="6360" windowWidth="26940" windowHeight="11895" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="appfuncase" sheetId="5" r:id="rId1"/>
@@ -18,9 +18,6 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -29,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="75">
   <si>
     <t>用例编号</t>
     <rPh sb="0" eb="1">
@@ -44,26 +41,6 @@
     <t>com.ushaqi.zhuishushenqi</t>
   </si>
   <si>
-    <t>系统版本</t>
-    <rPh sb="0" eb="1">
-      <t>xi't</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ban'ben</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统名称</t>
-    <rPh sb="0" eb="1">
-      <t>xi't</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ming'c</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>测试App包名</t>
     <rPh sb="0" eb="1">
       <t>ce's</t>
@@ -77,39 +54,6 @@
     <t>测试AppActivity</t>
     <rPh sb="0" eb="1">
       <t>ce's</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备ID</t>
-    <rPh sb="0" eb="1">
-      <t>she'b</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Android</t>
-  </si>
-  <si>
-    <t>端口号</t>
-    <rPh sb="0" eb="1">
-      <t>duan'kou</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>hao</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行设备编号</t>
-    <rPh sb="0" eb="1">
-      <t>zhi'x</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>she'b</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>bian'hao</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -439,9 +383,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>emulator-5554</t>
-  </si>
-  <si>
     <t>直接进入</t>
   </si>
   <si>
@@ -456,18 +397,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>192.168.44.116:5555</t>
-  </si>
-  <si>
     <t>//android.widget.Button[@resource-id='com.ushaqi.zhuishushenqi:id/btnEntryApp']</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -485,7 +415,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -894,47 +824,47 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.875" customWidth="1"/>
     <col min="3" max="3" width="79" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -944,18 +874,18 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -964,18 +894,18 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -984,15 +914,15 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1000,15 +930,15 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1">
@@ -1020,36 +950,36 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1058,15 +988,15 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1074,18 +1004,18 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1094,18 +1024,18 @@
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1114,29 +1044,29 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1145,18 +1075,18 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1165,18 +1095,18 @@
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1193,48 +1123,48 @@
       <selection sqref="A1:H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" customWidth="1"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="20.125" customWidth="1"/>
     <col min="3" max="3" width="49.5" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
     <col min="5" max="6" width="19.5" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" customWidth="1"/>
+    <col min="7" max="7" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1244,18 +1174,18 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1264,54 +1194,54 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1320,21 +1250,21 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1">
@@ -1342,18 +1272,18 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1362,21 +1292,21 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1">
@@ -1384,21 +1314,21 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1">
@@ -1406,21 +1336,21 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1">
@@ -1428,18 +1358,18 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1448,15 +1378,15 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1464,15 +1394,15 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1">
@@ -1484,15 +1414,15 @@
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1502,18 +1432,18 @@
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1521,15 +1451,15 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1538,18 +1468,18 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1558,18 +1488,18 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1578,18 +1508,18 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1598,18 +1528,18 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1618,36 +1548,36 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" t="s">
         <v>64</v>
-      </c>
-      <c r="C22" t="s">
-        <v>70</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1656,30 +1586,30 @@
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1687,18 +1617,18 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -1707,15 +1637,15 @@
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1">
@@ -1727,29 +1657,29 @@
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1758,15 +1688,15 @@
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1">
@@ -1778,18 +1708,18 @@
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1801,210 +1731,154 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="1" max="1" width="36" customWidth="1"/>
+    <col min="2" max="2" width="47.625" customWidth="1"/>
+    <col min="3" max="3" width="58.625" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="43.5" customWidth="1"/>
     <col min="7" max="8" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1">
-        <v>4726</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1">
-        <v>4726</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>

--- a/automationframework/automationserver/automationtestcase/app_function_case.xlsx
+++ b/automationframework/automationserver/automationtestcase/app_function_case.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\Project\AutomationFramework\automationframework\automationserver\automationtestcase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Software/Work/Eclipse/AutomationFramework/automationframework/automationserver/automationtestcase/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7260" yWindow="6360" windowWidth="26940" windowHeight="11895" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="46400" yWindow="560" windowWidth="26940" windowHeight="11900" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="appfuncase" sheetId="5" r:id="rId1"/>
-    <sheet name="funcase2" sheetId="1" r:id="rId2"/>
+    <sheet name="appfuncase2" sheetId="5" r:id="rId1"/>
+    <sheet name="appfuncase" sheetId="1" r:id="rId2"/>
     <sheet name="appdeviceinfo" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="60">
   <si>
     <t>用例编号</t>
     <rPh sb="0" eb="1">
@@ -135,25 +138,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>//android.widget.TextView[@resource-id='com.ushaqi.zhuishushenqi:id/text' and @text='发现']</t>
-  </si>
-  <si>
-    <t>点击_classid</t>
-    <rPh sb="0" eb="1">
-      <t>dian'ji</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>android.widget.TextView</t>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>点击_id</t>
@@ -200,70 +185,13 @@
     <t>//android.widget.EditText[@resource-id='com.ushaqi.zhuishushenqi:id/search_input_edit']</t>
   </si>
   <si>
-    <t>我家你</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>android.widget.EditText</t>
-  </si>
-  <si>
-    <t>2saaa</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>vv</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入_textname</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>书名、作者、分类</t>
-  </si>
-  <si>
     <t>物理按钮</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>点击_确认</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入_classid</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>点击_textname</t>
   </si>
   <si>
-    <t>asd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加你喜欢的小说</t>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>长按_classid</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>长按_textname</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -278,16 +206,6 @@
   <si>
     <t>查找_classid</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.Button[@resource-id='com.ushaqi.zhuishushenqi:id/btnEntryApp']</t>
-  </si>
-  <si>
-    <t>android.widget.Button</t>
   </si>
   <si>
     <t>Yes</t>
@@ -308,66 +226,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>if_</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>www</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>if包含_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>等待时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Yes</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>if包含_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Yes</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>等待时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Yes</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>if包含_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加你喜欢的小说</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>查找_textname</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发现</t>
-  </si>
-  <si>
-    <t>com.ushaqi.zhuishushenqi:id/home_action_menu_search</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.ushaqi.zhuishushenqi:id/home_action_menu_search</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.ushaqi.zhuishushenqi:id/home_action_menu_search</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -408,6 +291,77 @@
     <rPh sb="4" eb="5">
       <t>lu'j</t>
     </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ushaqi.zhuishushenqi:id/home_action_menu_search</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@resource-id='com.ushaqi.zhuishushenqi:id/iv_more']</t>
+  </si>
+  <si>
+    <t>com.ushaqi.zhuishushenqi:id/back</t>
+  </si>
+  <si>
+    <t>斗罗大陆</t>
+  </si>
+  <si>
+    <t>斗罗大陆</t>
+    <rPh sb="0" eb="1">
+      <t>dou'luo'da'l</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理按钮</t>
+    <rPh sb="0" eb="1">
+      <t>wu'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>an'n</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ushaqi.zhuishushenqi:id/search_cancel</t>
+  </si>
+  <si>
+    <t>//android.widget.ListView[@resource-id='android:id/list']/android.widget.RelativeLayout[1]/android.widget.RelativeLayout[2]</t>
+  </si>
+  <si>
+    <t>追更新</t>
+  </si>
+  <si>
+    <t>长按_xpath</t>
+    <rPh sb="0" eb="1">
+      <t>chang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>an</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='花镜（精装版）']</t>
+  </si>
+  <si>
+    <t>com.ushaqi.zhuishushenqi:id/cancel</t>
+  </si>
+  <si>
+    <t>花镜（精装版）</t>
+  </si>
+  <si>
+    <t>点击_textname</t>
+    <rPh sb="0" eb="1">
+      <t>dian'ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖帝独宠：猫妃，到朕碗里来</t>
+  </si>
+  <si>
+    <t>Yes</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -415,7 +369,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -824,16 +778,17 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
     <col min="3" max="3" width="79" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -847,7 +802,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
@@ -859,12 +814,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -874,15 +829,15 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -894,18 +849,18 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -914,15 +869,15 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -930,15 +885,15 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1">
@@ -950,15 +905,15 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -968,18 +923,18 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -988,15 +943,15 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1004,18 +959,18 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1024,18 +979,18 @@
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1044,26 +999,26 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
@@ -1075,18 +1030,18 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1095,18 +1050,18 @@
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1117,23 +1072,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="2" max="2" width="20.125" customWidth="1"/>
-    <col min="3" max="3" width="49.5" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
-    <col min="5" max="6" width="19.5" customWidth="1"/>
-    <col min="7" max="7" width="15.875" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" customWidth="1"/>
+    <col min="3" max="3" width="57.83203125" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="5" max="5" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1147,37 +1102,33 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="C2" s="1">
+        <v>10</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1185,19 +1136,16 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1205,521 +1153,268 @@
         <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="G4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
+      <c r="C5" t="s">
+        <v>46</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="G5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="1">
-        <v>4</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>49</v>
+      </c>
+      <c r="D7" s="1">
+        <v>66</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1">
-        <v>4</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1">
-        <v>4</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="1">
-        <v>4</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1">
-        <v>4</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1">
-        <v>4</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1">
-        <v>5</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="G13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1">
-        <v>24</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1">
-        <v>4</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1">
-        <v>4</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="G16" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1">
-        <v>5</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1">
-        <v>5</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="F18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1">
-        <v>5</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1">
-        <v>5</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1">
-        <v>5</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1">
-        <v>5</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="1">
-        <v>4</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1">
-        <v>24</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1">
-        <v>4</v>
-      </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1">
-        <v>4</v>
-      </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1">
-        <v>24</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1">
-        <v>4</v>
-      </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1733,21 +1428,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="47.625" customWidth="1"/>
-    <col min="3" max="3" width="58.625" customWidth="1"/>
+    <col min="2" max="2" width="47.6640625" customWidth="1"/>
+    <col min="3" max="3" width="58.6640625" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="43.5" customWidth="1"/>
     <col min="7" max="8" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1755,10 +1450,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1766,119 +1461,119 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>

--- a/automationframework/automationserver/automationtestcase/app_function_case.xlsx
+++ b/automationframework/automationserver/automationtestcase/app_function_case.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Software/Work/Eclipse/AutomationFramework/automationframework/automationserver/automationtestcase/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\Project\AutomationFramework\automationframework\automationserver\automationtestcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="46400" yWindow="560" windowWidth="26940" windowHeight="11900" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="46395" yWindow="555" windowWidth="26940" windowHeight="11895" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="appfuncase2" sheetId="5" r:id="rId1"/>
@@ -18,9 +18,6 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -29,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
   <si>
     <t>用例编号</t>
     <rPh sb="0" eb="1">
@@ -138,73 +135,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>android.widget.TextView</t>
-  </si>
-  <si>
-    <t>点击_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.ushaqi.zhuishushenqi:id/search_input_edit</t>
-  </si>
-  <si>
-    <r>
-      <t>输入_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>输入_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>xpath</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.EditText[@resource-id='com.ushaqi.zhuishushenqi:id/search_input_edit']</t>
-  </si>
-  <si>
     <t>物理按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击_textname</t>
-  </si>
-  <si>
-    <t>长按_textname</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>查找_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>查找_xpath</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>查找_classid</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -300,68 +231,7 @@
     <t>//android.widget.TextView[@resource-id='com.ushaqi.zhuishushenqi:id/iv_more']</t>
   </si>
   <si>
-    <t>com.ushaqi.zhuishushenqi:id/back</t>
-  </si>
-  <si>
-    <t>斗罗大陆</t>
-  </si>
-  <si>
-    <t>斗罗大陆</t>
-    <rPh sb="0" eb="1">
-      <t>dou'luo'da'l</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理按钮</t>
-    <rPh sb="0" eb="1">
-      <t>wu'li</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>an'n</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.ushaqi.zhuishushenqi:id/search_cancel</t>
-  </si>
-  <si>
-    <t>//android.widget.ListView[@resource-id='android:id/list']/android.widget.RelativeLayout[1]/android.widget.RelativeLayout[2]</t>
-  </si>
-  <si>
-    <t>追更新</t>
-  </si>
-  <si>
-    <t>长按_xpath</t>
-    <rPh sb="0" eb="1">
-      <t>chang</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>an</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.TextView[@text='花镜（精装版）']</t>
-  </si>
-  <si>
-    <t>com.ushaqi.zhuishushenqi:id/cancel</t>
-  </si>
-  <si>
-    <t>花镜（精装版）</t>
-  </si>
-  <si>
-    <t>点击_textname</t>
-    <rPh sb="0" eb="1">
-      <t>dian'ji</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>妖帝独宠：猫妃，到朕碗里来</t>
-  </si>
-  <si>
-    <t>Yes</t>
+    <t>No</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -369,7 +239,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -777,18 +647,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.875" customWidth="1"/>
     <col min="3" max="3" width="79" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" customWidth="1"/>
+    <col min="7" max="7" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -802,7 +672,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
@@ -814,12 +684,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -829,15 +699,15 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -849,18 +719,18 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -869,15 +739,15 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -885,15 +755,15 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1">
@@ -905,15 +775,15 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -923,18 +793,18 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -943,15 +813,15 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -959,18 +829,18 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -979,18 +849,18 @@
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -999,26 +869,26 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
@@ -1030,18 +900,18 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1050,18 +920,18 @@
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1074,21 +944,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" customWidth="1"/>
-    <col min="3" max="3" width="57.83203125" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="20.125" customWidth="1"/>
+    <col min="3" max="3" width="57.875" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
     <col min="5" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1102,7 +972,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
@@ -1111,12 +981,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1">
         <v>10</v>
@@ -1125,10 +995,10 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1136,16 +1006,16 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1153,269 +1023,143 @@
         <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>46</v>
-      </c>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="1">
-        <v>66</v>
-      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5"/>
+      <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>50</v>
-      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="G19" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1429,20 +1173,20 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="47.6640625" customWidth="1"/>
-    <col min="3" max="3" width="58.6640625" customWidth="1"/>
+    <col min="2" max="2" width="47.625" customWidth="1"/>
+    <col min="3" max="3" width="58.625" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="43.5" customWidth="1"/>
     <col min="7" max="8" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1450,10 +1194,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1461,119 +1205,119 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>

--- a/automationframework/automationserver/automationtestcase/app_function_case.xlsx
+++ b/automationframework/automationserver/automationtestcase/app_function_case.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\Project\AutomationFramework\automationframework\automationserver\automationtestcase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Software/Personal/Git_Project/Pycharm_Project/automationframework/automationframework/automationserver/automationtestcase/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="46395" yWindow="555" windowWidth="26940" windowHeight="11895" tabRatio="500"/>
+    <workbookView xWindow="120" yWindow="1680" windowWidth="26940" windowHeight="11900" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="appfuncase2" sheetId="5" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
   <si>
     <t>用例编号</t>
     <rPh sb="0" eb="1">
@@ -35,7 +35,7 @@
     <rPh sb="2" eb="3">
       <t>bian'hao</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>com.ushaqi.zhuishushenqi</t>
@@ -48,14 +48,14 @@
     <rPh sb="5" eb="6">
       <t>bao'ming</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>测试AppActivity</t>
     <rPh sb="0" eb="1">
       <t>ce's</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>com.ushaqi.zhuishushenqi.ui.SplashActivity</t>
@@ -68,7 +68,7 @@
     <rPh sb="2" eb="3">
       <t>lei'x</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>元素属性</t>
@@ -78,14 +78,14 @@
     <rPh sb="2" eb="3">
       <t>shu'x</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>参数</t>
     <rPh sb="0" eb="1">
       <t>can'shu</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>步骤描述</t>
@@ -95,14 +95,14 @@
     <rPh sb="2" eb="3">
       <t>miao'shu</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>点击_id</t>
     <rPh sb="0" eb="1">
       <t>dian'ji</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>com.ushaqi.zhuishushenqi:id/btnEntryApp</t>
@@ -115,7 +115,7 @@
     <rPh sb="2" eb="3">
       <t>zhuang't</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>等待时间</t>
@@ -125,22 +125,22 @@
     <rPh sb="2" eb="3">
       <t>shi'j</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>点击_xpath</t>
     <rPh sb="0" eb="1">
       <t>dian'ji</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>物理按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Yes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>待定列</t>
@@ -150,51 +150,51 @@
     <rPh sb="2" eb="3">
       <t>dianyu'qjie'guo</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>end</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>if包含_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>等待时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Yes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>if包含_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Yes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Yes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>查找_textname</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>if包含_xpath</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Yes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>end</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>直接进入</t>
@@ -204,15 +204,15 @@
     <rPh sb="0" eb="1">
       <t>cha'z</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>直接进入1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>//android.widget.Button[@resource-id='com.ushaqi.zhuishushenqi:id/btnEntryApp']</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>apk包路径</t>
@@ -222,32 +222,61 @@
     <rPh sb="4" eb="5">
       <t>lu'j</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.ushaqi.zhuishushenqi:id/home_action_menu_search</t>
-  </si>
-  <si>
-    <t>//android.widget.TextView[@resource-id='com.ushaqi.zhuishushenqi:id/iv_more']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Volumes/Software/Personal/Work/Apk/zssq-smsema-3180-0813.apk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.TextVie//android.widget.LinearLayout/android.widget.LinearLayout[1]/android.widget.RelativeLayout[1]/android.widget.ImageView[1]w[@resource-id='com.ushaqi.zhuishushenqi:id/iv_more']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待时间</t>
+    <rPh sb="0" eb="1">
+      <t>deng'dai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ushaqi.zhuishushenqi:id/iv_qq</t>
+  </si>
+  <si>
+    <t>//android.widget.Button[@resource-id='com.tencent.mobileqq:id/name']</t>
+  </si>
+  <si>
+    <t>com.ushaqi.zhuishushenqi:id/start_read_book</t>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -306,28 +335,28 @@
   </borders>
   <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -335,10 +364,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -647,18 +673,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
     <col min="3" max="3" width="79" customWidth="1"/>
-    <col min="7" max="7" width="8.875" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -684,7 +710,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -702,11 +728,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
@@ -722,7 +748,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -738,11 +764,11 @@
         <v>5</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -754,11 +780,11 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -778,7 +804,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -796,7 +822,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -816,7 +842,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -832,14 +858,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="2"/>
@@ -852,7 +878,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -872,7 +898,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -883,11 +909,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C13" t="s">
@@ -903,7 +929,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -923,7 +949,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -935,30 +961,30 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="2" max="2" width="20.125" customWidth="1"/>
-    <col min="3" max="3" width="57.875" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" customWidth="1"/>
+    <col min="3" max="3" width="57.83203125" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
     <col min="5" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="15.875" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -981,15 +1007,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -998,92 +1024,117 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>34</v>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1"/>
-      <c r="B5" s="5"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1"/>
-      <c r="B7" s="5"/>
+      <c r="G6" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="5"/>
+      <c r="B8" s="4"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="1"/>
+      <c r="B9" s="4"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="B10" s="4"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1092,7 +1143,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1101,7 +1152,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1110,7 +1161,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1119,7 +1170,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1128,7 +1179,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1137,7 +1188,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1146,7 +1197,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1155,14 +1206,23 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1173,20 +1233,20 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="47.625" customWidth="1"/>
-    <col min="3" max="3" width="58.625" customWidth="1"/>
+    <col min="2" max="2" width="47.6640625" customWidth="1"/>
+    <col min="3" max="3" width="62.33203125" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="43.5" customWidth="1"/>
     <col min="7" max="8" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1197,127 +1257,130 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1325,7 +1388,7 @@
       <c r="E20" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/automationframework/automationserver/automationtestcase/app_function_case.xlsx
+++ b/automationframework/automationserver/automationtestcase/app_function_case.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
   <si>
     <t>用例编号</t>
     <rPh sb="0" eb="1">
@@ -238,31 +238,10 @@
   </si>
   <si>
     <t>等待时间</t>
-    <rPh sb="0" eb="1">
-      <t>deng'dai</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shi'j</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等待时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>com.ushaqi.zhuishushenqi:id/iv_qq</t>
-  </si>
-  <si>
-    <t>//android.widget.Button[@resource-id='com.tencent.mobileqq:id/name']</t>
   </si>
   <si>
     <t>com.ushaqi.zhuishushenqi:id/start_read_book</t>
@@ -971,7 +950,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1012,7 +991,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1">
         <v>3</v>
@@ -1032,13 +1011,13 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1049,7 +1028,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1076,38 +1055,22 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>

--- a/automationframework/automationserver/automationtestcase/app_function_case.xlsx
+++ b/automationframework/automationserver/automationtestcase/app_function_case.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="1680" windowWidth="26940" windowHeight="11900" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="40800" yWindow="2680" windowWidth="26940" windowHeight="11900" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="appfuncase2" sheetId="5" r:id="rId1"/>
@@ -244,10 +244,11 @@
     <t>com.ushaqi.zhuishushenqi:id/iv_qq</t>
   </si>
   <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>com.ushaqi.zhuishushenqi:id/start_read_book</t>
-  </si>
-  <si>
-    <t>Yes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -950,7 +951,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1011,13 +1012,13 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">

--- a/automationframework/automationserver/automationtestcase/app_function_case.xlsx
+++ b/automationframework/automationserver/automationtestcase/app_function_case.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="40800" yWindow="2680" windowWidth="26940" windowHeight="11900" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1480" yWindow="700" windowWidth="26940" windowHeight="14460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="appfuncase2" sheetId="5" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="62">
   <si>
     <t>用例编号</t>
     <rPh sb="0" eb="1">
@@ -225,18 +225,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>No</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/Volumes/Software/Personal/Work/Apk/zssq-smsema-3180-0813.apk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//android.widget.TextVie//android.widget.LinearLayout/android.widget.LinearLayout[1]/android.widget.RelativeLayout[1]/android.widget.ImageView[1]w[@resource-id='com.ushaqi.zhuishushenqi:id/iv_more']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>等待时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -244,11 +236,166 @@
     <t>com.ushaqi.zhuishushenqi:id/iv_qq</t>
   </si>
   <si>
+    <t>com.ushaqi.zhuishushenqi:id/start_read_book</t>
+  </si>
+  <si>
+    <t>等待时间</t>
+    <rPh sb="0" eb="1">
+      <t>deng'dai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>sh'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.Button[@resource-id='com.tencent.mobileqq:id/name']</t>
+  </si>
+  <si>
+    <t>com.ushaqi.zhuishushenqi:id/home_action_menu_search</t>
+  </si>
+  <si>
+    <t>输入_id</t>
+    <rPh sb="0" eb="1">
+      <t>shu'ru</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ushaqi.zhuishushenqi:id/search_input_edit</t>
+  </si>
+  <si>
+    <t>物理按钮</t>
+    <rPh sb="0" eb="1">
+      <t>wu'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>an'n</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回车键相当于点击搜索按钮</t>
+    <rPh sb="0" eb="1">
+      <t>hui'che</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xiang'dang'yu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>sou's</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>an'n</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大主宰</t>
+    <rPh sb="0" eb="1">
+      <t>da'zhu'zai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.ListView[@resource-id='android:id/list']/android.widget.RelativeLayout[1]/android.widget.RelativeLayout[1]</t>
+  </si>
+  <si>
+    <t>if包含_id</t>
+    <rPh sb="2" eb="3">
+      <t>bao'han</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追更新</t>
+  </si>
+  <si>
+    <t>com.ushaqi.zhuishushenqi:id/book_detail_info_add_text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ushaqi.zhuishushenqi:id/book_detail_info_search_text</t>
+  </si>
+  <si>
+    <t>com.ushaqi.zhuishushenqi:id/tv_body</t>
+  </si>
+  <si>
+    <t>com.ushaqi.zhuishushenqi:id/reader_oper_back</t>
+  </si>
+  <si>
     <t>Yes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>com.ushaqi.zhuishushenqi:id/start_read_book</t>
+    <t>com.ushaqi.zhuishushenqi:id/back</t>
+  </si>
+  <si>
+    <t>物理按钮</t>
+    <rPh sb="0" eb="1">
+      <t>wu'l</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>an'n</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理返回按钮</t>
+    <rPh sb="0" eb="1">
+      <t>wu'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fan'h</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>an'n</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相当于按钮home按钮</t>
+    <rPh sb="0" eb="1">
+      <t>xiang'dang'yu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>an'n</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>an'n</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android:id/button1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if包含_文本</t>
+    <rPh sb="2" eb="3">
+      <t>bao'han</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wen'ben</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ushaqi.zhuishushenqi:id/dialog_custom_content</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -948,10 +1095,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -960,8 +1107,7 @@
     <col min="2" max="2" width="20.1640625" customWidth="1"/>
     <col min="3" max="3" width="57.83203125" customWidth="1"/>
     <col min="4" max="4" width="17.83203125" customWidth="1"/>
-    <col min="5" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="5" max="6" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -992,7 +1138,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1">
         <v>3</v>
@@ -1012,13 +1158,13 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1029,7 +1175,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1043,147 +1189,324 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="1"/>
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="4"/>
-      <c r="D8" s="1"/>
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="4"/>
-      <c r="D9" s="1"/>
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="1">
+        <v>66</v>
+      </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="1"/>
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="1">
+        <v>4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1197,7 +1520,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1229,7 +1552,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
